--- a/data/trans_dic/DCD-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,76</t>
+          <t>2,79; 7,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,06</t>
+          <t>3,65; 8,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,13</t>
+          <t>6,36; 11,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,53</t>
+          <t>7,55; 14,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,13</t>
+          <t>5,15; 10,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,96</t>
+          <t>16,67; 23,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,2</t>
+          <t>5,37; 9,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,45</t>
+          <t>4,88; 8,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,97</t>
+          <t>11,74; 15,82</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,99</t>
+          <t>3,25; 7,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,46</t>
+          <t>2,79; 7,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,36</t>
+          <t>7,42; 13,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,51</t>
+          <t>9,67; 17,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 13,76</t>
+          <t>7,5; 14,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 26,52</t>
+          <t>19,01; 26,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,99</t>
+          <t>6,6; 10,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,76</t>
+          <t>5,81; 9,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 18,35</t>
+          <t>13,78; 18,39</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,94</t>
+          <t>6,25; 11,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,56</t>
+          <t>4,97; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 15,15</t>
+          <t>3,28; 14,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,19</t>
+          <t>9,35; 17,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 26,16</t>
+          <t>13,35; 26,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 37,86</t>
+          <t>26,05; 38,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,18</t>
+          <t>7,89; 12,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,41</t>
+          <t>7,39; 12,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 19,87</t>
+          <t>5,79; 20,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,44</t>
+          <t>6,76; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,16</t>
+          <t>6,01; 9,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,74</t>
+          <t>14,21; 18,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,44</t>
+          <t>11,28; 16,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,75</t>
+          <t>9,21; 13,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 24,56</t>
+          <t>9,82; 24,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 12,03</t>
+          <t>9,04; 12,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 10,55</t>
+          <t>7,87; 10,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 20,04</t>
+          <t>12,4; 20,01</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,49</t>
+          <t>4,8; 9,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,82</t>
+          <t>7,73; 12,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,11</t>
+          <t>15,15; 22,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,42</t>
+          <t>17,88; 23,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,25; 20,06</t>
+          <t>14,46; 20,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 35,51</t>
+          <t>22,28; 35,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,14</t>
+          <t>13,19; 17,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,06</t>
+          <t>12,24; 16,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,8; 29,4</t>
+          <t>21,75; 29,22</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,98</t>
+          <t>1,42; 6,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,14</t>
+          <t>16,26; 21,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,02; 15,28</t>
+          <t>10,88; 15,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,07; 30,91</t>
+          <t>24,84; 30,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,18</t>
+          <t>13,18; 17,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,33</t>
+          <t>8,93; 12,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,25; 24,23</t>
+          <t>19,24; 24,19</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,56</t>
+          <t>5,8; 7,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 7,7</t>
+          <t>5,91; 7,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,66</t>
+          <t>9,56; 13,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,1; 17,64</t>
+          <t>15,1; 17,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,27</t>
+          <t>11,88; 14,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,89; 26,76</t>
+          <t>19,88; 26,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,84; 12,46</t>
+          <t>10,84; 12,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 10,63</t>
+          <t>9,2; 10,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,13</t>
+          <t>16,33; 20,16</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19907</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24039</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43361</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34044</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26958</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>88238</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53951</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50996</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>131598</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12208; 31558</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15660; 36059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32114; 56787</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23738; 46568</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17863; 38055</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>74580; 103931</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40355; 70048</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37898; 66623</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>111814; 150723</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21694</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17481</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46556</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43901</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>86301</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65595</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56697</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132857</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13611; 32922</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10525; 28545</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33541; 59642</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32697; 59128</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27914; 55006</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72729; 99682</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49953; 82762</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43543; 74226</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>115041; 153481</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53316</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35650</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60063</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34574</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31142</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>53660</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>87890</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66792</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>113723</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39308; 71051</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25931; 50036</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21910; 99626</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24332; 46597</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22178; 43401</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43487; 63749</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>70179; 108334</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50877; 84931</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48343; 167789</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97364</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85707</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>168599</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>104125</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>94651</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>183735</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201489</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>180359</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>352334</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78353; 116125</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69112; 106061</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>147071; 192495</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86444; 125196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76025; 114806</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>96061; 241532</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>174027; 231802</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>155466; 205861</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>249642; 402716</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34653</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62956</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>157384</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>126944</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>260261</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>192037</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>189900</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>347804</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24506; 46733</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47986; 80072</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>71949; 105859</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>136180; 181729</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>106719; 149242</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>187448; 298292</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>167805; 221021</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>166362; 220226</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>286358; 384635</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7831</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>205127</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>140394</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>209947</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>206463</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>142587</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>217778</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6677</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7666</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3422; 15914</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>180352; 233047</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>117769; 165178</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>189105; 234273</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>181334; 236276</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>122333; 169072</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>192720; 242320</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>228026</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>413953</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>579156</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>459305</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>882142</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>807426</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>687332</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1296094</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>198444; 259923</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>200076; 259002</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>322815; 460494</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>536008; 628597</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>419630; 503882</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>711316; 961918</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>755491; 866932</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>636400; 739175</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1135342; 1401705</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/DCD-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
